--- a/BirthChart.xlsx
+++ b/BirthChart.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasasimac/PycharmProjects/Vediceyes_astro_1_1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Planet Name</t>
   </si>
@@ -71,13 +58,13 @@
     <t>House of Lagna Lord</t>
   </si>
   <si>
-    <t>SUN$</t>
-  </si>
-  <si>
-    <t>Lib</t>
-  </si>
-  <si>
-    <t>VENU</t>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>VE</t>
   </si>
   <si>
     <t>Yes</t>
@@ -86,69 +73,72 @@
     <t>Neutral</t>
   </si>
   <si>
-    <t>8</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Ari</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Pis</t>
+  </si>
+  <si>
+    <t>JU</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>MOON</t>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Sco</t>
   </si>
   <si>
-    <t>MARS</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>MERC</t>
-  </si>
-  <si>
-    <t>Good Friend</t>
-  </si>
-  <si>
-    <t>Vir</t>
+    <t>Great Enemy</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Aries</t>
+  </si>
+  <si>
+    <t>Taurus</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>Cancer</t>
   </si>
   <si>
     <t>Leo</t>
   </si>
   <si>
-    <t>JUPI</t>
-  </si>
-  <si>
-    <t>SATU</t>
-  </si>
-  <si>
-    <t>RAHU</t>
-  </si>
-  <si>
-    <t>Tau</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Aries</t>
-  </si>
-  <si>
-    <t>Taurus</t>
-  </si>
-  <si>
-    <t>Gemini</t>
-  </si>
-  <si>
-    <t>Cancer</t>
-  </si>
-  <si>
     <t>Virgo</t>
   </si>
   <si>
@@ -170,79 +160,59 @@
     <t>Pisces</t>
   </si>
   <si>
+    <t>ME/RA</t>
+  </si>
+  <si>
+    <t>SU/MO/MA</t>
+  </si>
+  <si>
     <t>Houses</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Sun is fallen and in neutral sign, it will not give much benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moon is fallen and in a friends sign, it will be weak. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercury will behave well and provide benefits </t>
-  </si>
-  <si>
-    <t>Venus is fallen but in a good friends sign</t>
-  </si>
-  <si>
-    <t>Mars is in a good friends sign</t>
-  </si>
-  <si>
-    <t>Jupiter in a good friends sign</t>
-  </si>
-  <si>
-    <t>Saturn is exalted and in good friends sign but its cumbust with Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahu is exalted </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,32 +227,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -548,25 +512,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:O9"/>
+    <sheetView showRuler="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="A2:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="55.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="15.1640625"/>
+    <col customWidth="1" max="9" min="9" width="22.83203125"/>
+    <col customWidth="1" max="11" min="11" width="11.33203125"/>
+    <col customWidth="1" max="12" min="12" width="14"/>
+    <col customWidth="1" max="14" min="14" width="19.5"/>
+    <col customWidth="1" max="15" min="15" width="55.6640625"/>
+    <col customWidth="1" max="16" min="16" width="11.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row customFormat="1" r="1" s="1" spans="1:15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -609,11 +577,8 @@
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -623,20 +588,18 @@
       <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="n"/>
       <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="6" t="n"/>
       <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6" t="n"/>
       <c r="L2" s="6" t="s">
         <v>18</v>
       </c>
@@ -646,350 +609,368 @@
       <c r="N2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="6" t="n"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="n"/>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="M3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="6" t="n"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="6" t="n"/>
+      <c r="L4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4" s="6" t="n"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="n"/>
       <c r="L5" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="N5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="6" t="n"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="6" t="n"/>
+      <c r="L6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="N6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="6" t="n"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="n"/>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="6" t="n"/>
+      <c r="L7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="6" t="n"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="6" t="n"/>
+      <c r="J8" s="6" t="n"/>
+      <c r="K8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="O8" s="6" t="n"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
+      <c r="F9" s="6" t="n"/>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6" t="n"/>
+      <c r="J9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="6" t="n"/>
       <c r="L9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C12" s="5"/>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="6" t="n"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="C12" s="5" t="n"/>
+    </row>
+    <row customFormat="1" r="15" s="3" spans="1:15">
+      <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="M15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="4">
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row customFormat="1" r="25" s="4" spans="1:15">
+      <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C25" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D25" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E25" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F25" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G25" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H25" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I25" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J25" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K25" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L25" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M25" s="4" t="n">
         <v>12</v>
       </c>
     </row>
+    <row r="26" spans="1:15">
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/BirthChart.xlsx
+++ b/BirthChart.xlsx
@@ -61,67 +61,64 @@
     <t>SU</t>
   </si>
   <si>
-    <t>Tau</t>
+    <t>Vir</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Good Friend</t>
   </si>
   <si>
     <t>VE</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Neutral</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Ari</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
-    <t>10</t>
+    <t>Sco</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>JU</t>
+  </si>
+  <si>
+    <t>Aqu</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>RA</t>
   </si>
   <si>
     <t>Pis</t>
   </si>
   <si>
-    <t>JU</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Sco</t>
-  </si>
-  <si>
-    <t>Great Enemy</t>
-  </si>
-  <si>
-    <t>RA</t>
+    <t>8</t>
   </si>
   <si>
     <t>Aries</t>
@@ -160,13 +157,16 @@
     <t>Pisces</t>
   </si>
   <si>
-    <t>ME/RA</t>
-  </si>
-  <si>
-    <t>SU/MO/MA</t>
+    <t>SU/MO/ME/VE/SA</t>
   </si>
   <si>
     <t>Houses</t>
+  </si>
+  <si>
+    <t>ME/VE/SA</t>
+  </si>
+  <si>
+    <t>SU/MO</t>
   </si>
 </sst>
 </file>
@@ -592,28 +592,24 @@
       <c r="E2" s="6" t="n"/>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="6" t="n"/>
-      <c r="H2" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="H2" s="6" t="n"/>
       <c r="I2" s="6" t="n"/>
       <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="6" t="n"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="6" t="n"/>
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="O2" s="6" t="n"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
@@ -621,60 +617,56 @@
       <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D3" s="6" t="n"/>
       <c r="E3" s="6" t="n"/>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" s="6" t="n"/>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I3" s="6" t="n"/>
       <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="6" t="n"/>
       <c r="L3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="O3" s="6" t="n"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="6" t="n"/>
-      <c r="F4" s="6" t="n"/>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="6" t="n"/>
       <c r="H4" s="6" t="n"/>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="6" t="n"/>
-      <c r="L4" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="I4" s="6" t="n"/>
+      <c r="J4" s="6" t="n"/>
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="6" t="n"/>
       <c r="M4" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>19</v>
@@ -683,134 +675,128 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" s="6" t="n"/>
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" s="6" t="n"/>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="6" t="n"/>
+      <c r="I5" s="6" t="n"/>
+      <c r="J5" s="6" t="n"/>
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="L5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="O5" s="6" t="n"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="6" t="n"/>
       <c r="F6" s="6" t="n"/>
       <c r="G6" s="6" t="n"/>
       <c r="H6" s="6" t="n"/>
-      <c r="I6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="6" t="n"/>
-      <c r="L6" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="I6" s="6" t="n"/>
+      <c r="J6" s="6" t="n"/>
+      <c r="K6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="6" t="n"/>
       <c r="M6" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O6" s="6" t="n"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="E7" s="6" t="n"/>
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="6" t="n"/>
       <c r="H7" s="6" t="n"/>
       <c r="I7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="6" t="n"/>
+      <c r="J7" s="6" t="n"/>
+      <c r="K7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="L7" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O7" s="6" t="n"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6" t="n"/>
       <c r="E8" s="6" t="n"/>
       <c r="F8" s="6" t="n"/>
-      <c r="G8" s="6" t="n"/>
-      <c r="H8" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="G8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="6" t="n"/>
       <c r="I8" s="6" t="n"/>
       <c r="J8" s="6" t="n"/>
       <c r="K8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>19</v>
@@ -819,34 +805,34 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6" t="n"/>
       <c r="E9" s="6" t="n"/>
       <c r="F9" s="6" t="n"/>
-      <c r="G9" s="6" t="n"/>
-      <c r="H9" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="G9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="6" t="n"/>
       <c r="I9" s="6" t="n"/>
       <c r="J9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="6" t="n"/>
       <c r="L9" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="O9" s="6" t="n"/>
     </row>
@@ -858,62 +844,59 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:15">
+      <c r="G16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
       <c r="I16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row customFormat="1" r="25" s="4" spans="1:15">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>1</v>
@@ -953,20 +936,20 @@
       </c>
     </row>
     <row r="26" spans="1:15">
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
